--- a/hw_form.xlsx
+++ b/hw_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ข้อ</t>
   </si>
@@ -40,16 +40,37 @@
   <si>
     <t>2.1. ภาคกลาง เกิดขึ้นปี 2550, 2552, 2554, 2556, 2558
 2.2. ภาคเหนือ เกิดขึ้นปี 2550, 2552, 2554, 2556, 2558</t>
+  </si>
+  <si>
+    <t>3.1. ภาคกลาง 57.9%
+3.2. ภาคใต้ 7.3%</t>
+  </si>
+  <si>
+    <t>https://jsfiddle.net/ammyblabla/hmvxjeou/6/</t>
+  </si>
+  <si>
+    <t>https://jsfiddle.net/ammyblabla/a41es3t9/10/</t>
+  </si>
+  <si>
+    <t>ภาคเหนือ และภาคใต้</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,10 +93,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -83,8 +105,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,7 +426,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,26 +450,34 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -466,6 +500,11 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>